--- a/T7 - Credito/Ejercicio/Entrega_Credito_JO_v1.xlsx
+++ b/T7 - Credito/Ejercicio/Entrega_Credito_JO_v1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo_Clase" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Ejercicio2" sheetId="6" r:id="rId3"/>
     <sheet name="Comp_rho=1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -191,9 +192,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
-    <numFmt numFmtId="184" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -318,12 +319,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,6 +335,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +358,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2091,11 +2094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167852288"/>
-        <c:axId val="175819776"/>
+        <c:axId val="490470864"/>
+        <c:axId val="490471256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167852288"/>
+        <c:axId val="490470864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2108,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175819776"/>
+        <c:crossAx val="490471256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175819776"/>
+        <c:axId val="490471256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167852288"/>
+        <c:crossAx val="490470864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2394,7 +2397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2429,7 +2432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3849,10 +3852,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,6 +6297,40 @@
         <v>1.0314455972581754E-3</v>
       </c>
     </row>
+    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>SUM(F4:F64)</f>
+        <v>59.500308698239039</v>
+      </c>
+      <c r="G65" s="14">
+        <f t="shared" ref="G65:M65" si="14">SUM(G4:G64)</f>
+        <v>56.647192437357901</v>
+      </c>
+      <c r="H65" s="14">
+        <f t="shared" si="14"/>
+        <v>9.5126690978559608E-2</v>
+      </c>
+      <c r="I65" s="14">
+        <f t="shared" si="14"/>
+        <v>58.769090207042041</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="14"/>
+        <v>58.798104928193013</v>
+      </c>
+      <c r="K65" s="14">
+        <f t="shared" si="14"/>
+        <v>3.567145598501005E-2</v>
+      </c>
+      <c r="L65" s="14">
+        <f t="shared" si="14"/>
+        <v>3.0164472748851295E-2</v>
+      </c>
+      <c r="M65" s="14">
+        <f t="shared" si="14"/>
+        <v>6.5835928733861349E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6304,7 +6341,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:O285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -6499,7 +6536,7 @@
         <v>0.99501247919268221</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H6:H37" si="6">(1-$B$8)*F7*(G6-G7)</f>
+        <f t="shared" ref="H7:H37" si="6">(1-$B$8)*F7*(G6-G7)</f>
         <v>1.7405469130529158E-3</v>
       </c>
       <c r="K7" s="13">
@@ -7442,14 +7479,14 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <f t="shared" ref="A32:A40" si="7">A31+0.1</f>
+        <f t="shared" ref="A32:A39" si="7">A31+0.1</f>
         <v>0.2</v>
       </c>
       <c r="B32">
         <v>-3.3121601077273424E-2</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:C45" si="8">B31-B32</f>
+        <f t="shared" ref="C32:C44" si="8">B31-B32</f>
         <v>1.5326628854950286E-13</v>
       </c>
       <c r="E32">
